--- a/APM files/141737674/Book1.xlsx
+++ b/APM files/141737674/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\elias\dev\workspace\APM files\140291048\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141737674/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5538395-8810-4D0C-B157-222F3FDAE724}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC3F1E-E3BE-6644-8BE3-59ACEC91D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3015" yWindow="1455" windowWidth="28800" windowHeight="15345" xr2:uid="{BF49E6A5-F0E5-2340-B9E4-F06D89E88F27}"/>
+    <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26820" xr2:uid="{BF49E6A5-F0E5-2340-B9E4-F06D89E88F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -716,17 +716,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{385CAC43-CC4C-2140-9D42-161DFCCDD4E5}">
   <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H29" sqref="H29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -742,7 +742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -750,7 +750,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -758,7 +758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -766,7 +766,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -774,7 +774,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -782,7 +782,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -790,7 +790,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -798,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -806,7 +806,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>20</v>
       </c>
@@ -814,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -822,7 +822,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -830,7 +830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>26</v>
       </c>
@@ -838,7 +838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>28</v>
       </c>
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -854,7 +854,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -862,7 +862,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -870,7 +870,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>36</v>
       </c>
@@ -878,7 +878,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>38</v>
       </c>
@@ -886,7 +886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>40</v>
       </c>
@@ -894,7 +894,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -902,7 +902,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -910,7 +910,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -918,7 +918,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>48</v>
       </c>
@@ -926,7 +926,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>50</v>
       </c>
@@ -934,7 +934,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>52</v>
       </c>
@@ -942,7 +942,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>54</v>
       </c>
@@ -950,7 +950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -958,7 +958,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>58</v>
       </c>
@@ -966,7 +966,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>60</v>
       </c>
@@ -974,7 +974,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>62</v>
       </c>
@@ -982,7 +982,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>64</v>
       </c>
@@ -990,7 +990,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>66</v>
       </c>
@@ -998,7 +998,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>68</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>70</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>74</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>76</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>78</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>80</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>82</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>84</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>86</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>88</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>90</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>92</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>94</v>
       </c>

--- a/APM files/141737674/Book1.xlsx
+++ b/APM files/141737674/Book1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/darkesthj/dev/workspace/APM files/141737674/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADC3F1E-E3BE-6644-8BE3-59ACEC91D43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FB065E-1C93-0E4A-A1DB-D418EC562B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="620" windowWidth="25600" windowHeight="26820" xr2:uid="{BF49E6A5-F0E5-2340-B9E4-F06D89E88F27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -717,7 +717,7 @@
   <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
